--- a/DIV5_Analysis/ComparedResults/Full_Comparison.xlsx
+++ b/DIV5_Analysis/ComparedResults/Full_Comparison.xlsx
@@ -42,10 +42,10 @@
       <color rgb="00FFFFFF"/>
     </font>
     <font>
-      <color rgb="00006100"/>
+      <color rgb="009C0006"/>
     </font>
     <font>
-      <color rgb="009C0006"/>
+      <color rgb="00006100"/>
     </font>
   </fonts>
   <fills count="5">
@@ -63,14 +63,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00C6EFCE"/>
-        <bgColor rgb="00C6EFCE"/>
+        <fgColor rgb="00FFC7CE"/>
+        <bgColor rgb="00FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFC7CE"/>
-        <bgColor rgb="00FFC7CE"/>
+        <fgColor rgb="00C6EFCE"/>
+        <bgColor rgb="00C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -479,9 +479,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="13" customWidth="1" min="2" max="2"/>
-    <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="19" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -519,17 +519,17 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2521</v>
+        <v>3195</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2642</v>
+        <v>2987</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>121</v>
+        <v>-208</v>
       </c>
       <c r="E2" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -540,17 +540,17 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2647.991</v>
+        <v>2749.12</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>2791.271</v>
+        <v>2536.194</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>143.2800000000002</v>
+        <v>-212.9259999999999</v>
       </c>
       <c r="E3" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -561,17 +561,17 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="inlineStr">
-        <is>
-          <t>Increased</t>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>No Change</t>
         </is>
       </c>
     </row>
@@ -603,17 +603,17 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>81110.33314</v>
+        <v>87315.67408645363</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>87423.87781000001</v>
+        <v>74223.82618523184</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>6313.544670000003</v>
+        <v>-13091.84790122179</v>
       </c>
       <c r="E6" s="5" t="inlineStr">
         <is>
-          <t>Increased</t>
+          <t>Decreased</t>
         </is>
       </c>
     </row>
@@ -628,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,15 +661,15 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>SULEIMAN, AHMED</t>
+          <t>SILVA, PAUL</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>NEMIA CARE LLC</t>
-        </is>
-      </c>
-      <c r="C2" s="5" t="inlineStr">
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -678,66 +678,15 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>LARA, DOUGLAS</t>
+          <t>SULEIMAN, AHMED</t>
         </is>
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+          <t>NEMIA CARE LLC</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>MUNOZ, ANA</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="C4" s="5" t="inlineStr">
-        <is>
-          <t>Added</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>SILVA, PAUL</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Removed</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>MATUECCI, MATT</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -754,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,13 +746,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>16</v>
+        <v>119</v>
+      </c>
+      <c r="D2" s="6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -813,13 +762,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>143</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>-21</v>
+        <v>189</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-71</v>
       </c>
     </row>
     <row r="4">
@@ -829,13 +778,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="D4" s="6" t="n">
-        <v>-9</v>
+        <v>93</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="5">
@@ -845,13 +794,13 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>723</v>
+        <v>967</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>785</v>
+        <v>881</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-62</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
@@ -861,13 +810,13 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>76</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>-14</v>
+        <v>90</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-37</v>
       </c>
     </row>
     <row r="7">
@@ -877,13 +826,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>73</v>
+        <v>153</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>13</v>
+        <v>-8</v>
       </c>
     </row>
     <row r="8">
@@ -893,13 +842,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>80</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>4</v>
+        <v>101</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -909,189 +858,141 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>59</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>JORGE TRANSPORTATION</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>-11</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>NEMIA CARE LLC</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>12</v>
+        <v>-74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>NEMIA CARE LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>102</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>83</v>
+        <v>170</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>REM SOLUTIONS LLC</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>64</v>
+        <v>135</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>86</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>147</v>
+        <v>558</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>113</v>
+        <v>634</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>34</v>
+        <v>-76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>TRANSIT LTM LLC</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>-5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>67</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>305</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>254</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>68</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>66</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>TRI VALLEY TRANSPORTATION INC.</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>136</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>134</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>2</v>
+        <v>222</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-149</v>
       </c>
     </row>
   </sheetData>
@@ -1105,7 +1006,310 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="9" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>AARON TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
+        <v>101.42</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>102.13</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>BUFFINGTON TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
+        <v>56.95</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>92.95</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>DIAMOND HILL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
+        <v>105.82</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>103.33</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
+        <v>825.28</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>818.08</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>FOWLER SENIOR TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>105.7</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-60.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>GET CARE TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
+        <v>108.25</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>119.8</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-11.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>HIGHER-SELF LLC</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
+        <v>109.3</v>
+      </c>
+      <c r="C8" s="4" t="n">
+        <v>102.94</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>6.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>HUGO FAMILY TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>49.95</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-35.75</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>MONAI&amp;SON'S LLC</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>94.45</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>80.45</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>NEMIA CARE LLC</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>35.53</v>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-46.43</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>93.65000000000001</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="D12" s="6" t="n">
+        <v>5.95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>QUICK RIDES CA</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>204.54</v>
+      </c>
+      <c r="C13" s="4" t="n">
+        <v>183.57</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>20.97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>REM SOLUTIONS LLC</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="n">
+        <v>125.55</v>
+      </c>
+      <c r="C14" s="4" t="n">
+        <v>87.55</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="n">
+        <v>451.15</v>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>554.8200000000001</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>-103.67</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>TRANSIT LTM LLC</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="n">
+        <v>98.83</v>
+      </c>
+      <c r="C16" s="4" t="n">
+        <v>67.13</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>31.7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="n">
+        <v>30.33</v>
+      </c>
+      <c r="C17" s="4" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-44.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,13 +1352,13 @@
         </is>
       </c>
       <c r="B2" s="4" t="n">
-        <v>89.92</v>
+        <v>615</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>70.64</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>19.28</v>
+        <v>615</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1164,13 +1368,13 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>83.36</v>
+        <v>615</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>84.84999999999999</v>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>-1.49</v>
+        <v>615</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1180,13 +1384,13 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>93.90000000000001</v>
+        <v>615</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>93.38</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>0.52</v>
+        <v>615</v>
+      </c>
+      <c r="D4" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1196,29 +1400,29 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>834.39</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>871.89</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>-37.5</v>
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>FOWLER SENIOR TRANSIT LLC</t>
+          <t>Fowler Senior Transit LLC</t>
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>78.37</v>
+        <v>307.5</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>88.98</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>-10.61</v>
+        <v>615</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-307.5</v>
       </c>
     </row>
     <row r="7">
@@ -1228,13 +1432,13 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>108.93</v>
+        <v>0</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>90.2</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>18.73</v>
+        <v>0</v>
+      </c>
+      <c r="D7" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1244,13 +1448,13 @@
         </is>
       </c>
       <c r="B8" s="4" t="n">
-        <v>95.8</v>
+        <v>455</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>94.45</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>1.35</v>
+        <v>455</v>
+      </c>
+      <c r="D8" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1260,13 +1464,13 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>87.09999999999999</v>
+        <v>615</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>28.01</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>59.09</v>
+        <v>615</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1276,523 +1480,140 @@
         </is>
       </c>
       <c r="B10" s="4" t="n">
-        <v>99.38</v>
+        <v>0</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>104.57</v>
-      </c>
-      <c r="D10" s="6" t="n">
-        <v>-5.19</v>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>MADE EAZY LLC</t>
+          <t>MONAI&amp;SON'S LLC</t>
         </is>
       </c>
       <c r="B11" s="4" t="n">
-        <v>86.13</v>
+        <v>455</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>83.34</v>
+        <v>615</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.79</v>
+        <v>-160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>MONAI&amp;SON'S LLC</t>
+          <t>NEMIA CARE LLC</t>
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>96.15000000000001</v>
+        <v>615</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>99.34999999999999</v>
-      </c>
-      <c r="D12" s="6" t="n">
-        <v>-3.2</v>
+        <v>615</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>NEMIA CARE LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>159.63</v>
+        <v>615</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>90.79000000000001</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>68.84</v>
+        <v>615</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>QUICK RIDES CA</t>
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>67.55</v>
+        <v>615</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>89.61</v>
-      </c>
-      <c r="D14" s="6" t="n">
-        <v>-22.06</v>
+        <v>615</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
+          <t>REM Solutions LLC</t>
         </is>
       </c>
       <c r="B15" s="4" t="n">
-        <v>76.37</v>
+        <v>455</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>67.34</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>9.029999999999999</v>
+        <v>455</v>
+      </c>
+      <c r="D15" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>QUICK RIDES CA</t>
+          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="B16" s="4" t="n">
-        <v>156.28</v>
+        <v>1070</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>148.59</v>
+        <v>2140</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>7.69</v>
+        <v>-1070</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>REM SOLUTIONS LLC</t>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>65.37</v>
+        <v>416.72</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>75.42</v>
-      </c>
-      <c r="D17" s="6" t="n">
-        <v>-10.05</v>
+        <v>416.72</v>
+      </c>
+      <c r="D17" s="4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+          <t>Transit LTM LLC</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>355.5</v>
+        <v>615</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>309.79</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>45.71</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>TRANSIT LTM LLC</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>88.92</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>87.73999999999999</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1.18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>TRI VALLEY TRANSPORTATION INC.</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>68.23</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>69.05</v>
-      </c>
-      <c r="D20" s="6" t="n">
-        <v>-0.82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="38" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>PARTNER</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>LATEST</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>PREVIOUS</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>CHANGE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>AARON TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>463.58</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>126.42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>BUFFINGTON TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C3" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>DIAMOND HILL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C4" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Fowler Senior Transit LLC</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>GET CARE TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>HIGHER-SELF LLC</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>HUGO FAMILY TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>295</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>JORGE TRANSPORTATION</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>MADE EAZY LLC</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>MONAI&amp;SON'S LLC</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C12" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>NEMIA CARE LLC</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="n">
-        <v>1180</v>
-      </c>
-      <c r="C13" s="4" t="n">
-        <v>1180</v>
-      </c>
-      <c r="D13" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C14" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>PEOPLE FIRST TRANSIT LLC</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C15" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D15" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>QUICK RIDES CA</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C16" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>REM Solutions LLC</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="C17" s="4" t="n">
-        <v>430</v>
-      </c>
-      <c r="D17" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
-        <v>1450</v>
-      </c>
-      <c r="C18" s="4" t="n">
-        <v>1450</v>
+        <v>615</v>
       </c>
       <c r="D18" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>TRI VALLEY TRANSPORTATION INC.</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="n">
-        <v>416.72</v>
-      </c>
-      <c r="C19" s="4" t="n">
-        <v>416.72</v>
-      </c>
-      <c r="D19" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>Transit LTM LLC</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C20" s="4" t="n">
-        <v>590</v>
-      </c>
-      <c r="D20" s="4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1833,9 +1654,9 @@
     </row>
     <row r="2">
       <c r="A2" s="7" t="n">
-        <v>45662</v>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+        <v>45761</v>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1843,9 +1664,9 @@
     </row>
     <row r="3">
       <c r="A3" s="7" t="n">
-        <v>45666</v>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
+        <v>45755</v>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1853,9 +1674,9 @@
     </row>
     <row r="4">
       <c r="A4" s="7" t="n">
-        <v>45657</v>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
+        <v>45762</v>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1863,9 +1684,9 @@
     </row>
     <row r="5">
       <c r="A5" s="7" t="n">
-        <v>45661</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
+        <v>45757</v>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1873,9 +1694,9 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="n">
-        <v>45663</v>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
+        <v>45764</v>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1883,9 +1704,9 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="n">
-        <v>45667</v>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
+        <v>45758</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1893,9 +1714,9 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="n">
-        <v>45664</v>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
+        <v>45763</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1903,9 +1724,9 @@
     </row>
     <row r="9">
       <c r="A9" s="7" t="n">
-        <v>45659</v>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
+        <v>45766</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1913,9 +1734,9 @@
     </row>
     <row r="10">
       <c r="A10" s="7" t="n">
-        <v>45658</v>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
+        <v>45756</v>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1923,9 +1744,9 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="n">
-        <v>45660</v>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
+        <v>45754</v>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1933,9 +1754,9 @@
     </row>
     <row r="12">
       <c r="A12" s="7" t="n">
-        <v>45669</v>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
+        <v>45767</v>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1943,9 +1764,9 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="n">
-        <v>45668</v>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
+        <v>45760</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1953,9 +1774,9 @@
     </row>
     <row r="14">
       <c r="A14" s="7" t="n">
-        <v>45665</v>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
+        <v>45759</v>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1963,9 +1784,9 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="n">
-        <v>45656</v>
-      </c>
-      <c r="B15" s="5" t="inlineStr">
+        <v>45765</v>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
         <is>
           <t>Added</t>
         </is>
@@ -1973,9 +1794,9 @@
     </row>
     <row r="16">
       <c r="A16" s="7" t="n">
-        <v>45654</v>
-      </c>
-      <c r="B16" s="6" t="inlineStr">
+        <v>45750</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1983,9 +1804,9 @@
     </row>
     <row r="17">
       <c r="A17" s="7" t="n">
-        <v>45643</v>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
+        <v>45742</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -1993,9 +1814,9 @@
     </row>
     <row r="18">
       <c r="A18" s="7" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
+        <v>45745</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2003,9 +1824,9 @@
     </row>
     <row r="19">
       <c r="A19" s="7" t="n">
-        <v>45642</v>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
+        <v>45749</v>
+      </c>
+      <c r="B19" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2013,9 +1834,9 @@
     </row>
     <row r="20">
       <c r="A20" s="7" t="n">
-        <v>45647</v>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
+        <v>45743</v>
+      </c>
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2023,9 +1844,9 @@
     </row>
     <row r="21">
       <c r="A21" s="7" t="n">
-        <v>45645</v>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
+        <v>45740</v>
+      </c>
+      <c r="B21" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2033,9 +1854,9 @@
     </row>
     <row r="22">
       <c r="A22" s="7" t="n">
-        <v>45646</v>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
+        <v>45748</v>
+      </c>
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2043,9 +1864,9 @@
     </row>
     <row r="23">
       <c r="A23" s="7" t="n">
-        <v>45650</v>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
+        <v>45744</v>
+      </c>
+      <c r="B23" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2053,9 +1874,9 @@
     </row>
     <row r="24">
       <c r="A24" s="7" t="n">
-        <v>45653</v>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
+        <v>45747</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2063,9 +1884,9 @@
     </row>
     <row r="25">
       <c r="A25" s="7" t="n">
-        <v>45644</v>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
+        <v>45752</v>
+      </c>
+      <c r="B25" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2073,9 +1894,9 @@
     </row>
     <row r="26">
       <c r="A26" s="7" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
+        <v>45753</v>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2083,9 +1904,9 @@
     </row>
     <row r="27">
       <c r="A27" s="7" t="n">
-        <v>45649</v>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
+        <v>45746</v>
+      </c>
+      <c r="B27" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2093,9 +1914,9 @@
     </row>
     <row r="28">
       <c r="A28" s="7" t="n">
-        <v>45651</v>
-      </c>
-      <c r="B28" s="6" t="inlineStr">
+        <v>45751</v>
+      </c>
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2103,9 +1924,9 @@
     </row>
     <row r="29">
       <c r="A29" s="7" t="n">
-        <v>45652</v>
-      </c>
-      <c r="B29" s="6" t="inlineStr">
+        <v>45741</v>
+      </c>
+      <c r="B29" s="5" t="inlineStr">
         <is>
           <t>Removed</t>
         </is>
@@ -2233,108 +2054,108 @@
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>BROWN, LOVIE</t>
+          <t>BROWN, GREG</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>BROWN, LOVIE</t>
+          <t>BROWN, GREG</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>BUTLER, JACQUELINE</t>
+          <t>BROWN, LOVIE</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>BUTLER, JACQUELINE</t>
+          <t>BROWN, LOVIE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>EVANS, JOHN</t>
+          <t>BUTLER, JACQUELINE</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>EVANS, JOHN</t>
+          <t>BUTLER, JACQUELINE</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>FOWLER, ANTOINE</t>
+          <t>EVANS, JOHN</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>FOWLER, ANTOINE</t>
+          <t>EVANS, JOHN</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>FUENTES, PEDRO</t>
+          <t>FOWLER, ANTOINE</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>FUENTES, PEDRO</t>
+          <t>FOWLER, ANTOINE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
+          <t>FUENTES, PEDRO</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
           <t>HUGO, TAMA</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>HALE, MICHAEL</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
+          <t>HUGO, TAMA</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
           <t>JENNINGS, WILLIAM</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>HUGO, TAMA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
+          <t>JENNINGS, WILLIAM</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
           <t>KEITH , CLYDE</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>JENNINGS, WILLIAM</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>LARA, DOUGLAS</t>
+          <t>KEITH , CLYDE</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>KEITH , CLYDE</t>
+          <t>MAINESS, RYAN</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2167,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>MAINESS, RYAN</t>
+          <t>MALCOM, LANDREW</t>
         </is>
       </c>
     </row>
@@ -2358,7 +2179,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>MALCOM, LANDREW</t>
+          <t>MARZI, SAMI JAN</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2191,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>MARZI, SAMI JAN</t>
+          <t>MOLLIQUE, ROMESHA</t>
         </is>
       </c>
     </row>
@@ -2382,19 +2203,19 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>MOLLIQUE, ROMESHA</t>
+          <t>OXCAL, SERGIO</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>OBELTON, KENNETH</t>
+          <t>OXCAL, SERGIO</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>OBELTON, KENNETH</t>
+          <t>ROGERS, JAMES</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2227,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>ROGERS, JAMES</t>
+          <t>SILVA, PAUL</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2239,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>SILVA, PAUL</t>
+          <t>STEPHENS, MARITZA</t>
         </is>
       </c>
     </row>
@@ -2430,7 +2251,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>STEPHENS, MARITZA</t>
+          <t>TILLMAN, ROSALYN</t>
         </is>
       </c>
     </row>
@@ -2442,7 +2263,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>TILLMAN, ROSALYN</t>
+          <t>UMANA, DOMINGO</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2275,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>UMANA, DOMINGO</t>
+          <t>VAUGHN, DUSTIN</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2287,7 @@
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>VAUGHN, DUSTIN</t>
+          <t>VILCHEZ, CHARLENNE</t>
         </is>
       </c>
     </row>
@@ -2476,11 +2297,7 @@
           <t>VILCHEZ, CHARLENNE</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
-        <is>
-          <t>VILCHEZ, CHARLENNE</t>
-        </is>
-      </c>
+      <c r="B26" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
